--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>C+</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>C+</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A0</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>C0</t>
         </is>
       </c>
     </row>
